--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.011020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.011020.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2947,12 +2947,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3073,12 +3073,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4585,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4669,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7159,12 +7159,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7915,12 +7915,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9091,12 +9091,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9805,12 +9805,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10183,12 +10183,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10859,12 +10859,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
